--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(0-4) - (75-79).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(0-4) - (75-79).xlsx
@@ -286,7 +286,7 @@
     <t>924.4 (±81.6)</t>
   </si>
   <si>
-    <t>1739.0 (±256.2)</t>
+    <t>1742.0 (±256.2)</t>
   </si>
   <si>
     <t>4592.0 (±337.1)</t>
@@ -298,7 +298,7 @@
     <t>69.6 (±27.6)</t>
   </si>
   <si>
-    <t>3294.6 (±315.9)</t>
+    <t>3293.6 (±315.9)</t>
   </si>
   <si>
     <t>123.2 (±116.5)</t>
@@ -361,7 +361,7 @@
     <t>1709.0 (±574.2)</t>
   </si>
   <si>
-    <t>1510.8 (±121.2)</t>
+    <t>1514.8 (±121.2)</t>
   </si>
   <si>
     <t>270.0 (±61.9)</t>
@@ -472,7 +472,7 @@
     <t>21.9(±1.9)</t>
   </si>
   <si>
-    <t>32.0(±4.8)</t>
+    <t>32.1(±4.7)</t>
   </si>
   <si>
     <t>136.7(±10.0)</t>
@@ -547,7 +547,7 @@
     <t>51.0(±17.1)</t>
   </si>
   <si>
-    <t>56.7(±4.6)</t>
+    <t>56.9(±4.5)</t>
   </si>
   <si>
     <t>27.9(±6.4)</t>
@@ -661,7 +661,7 @@
     <t>1656.6 (±273.7)</t>
   </si>
   <si>
-    <t>3124.6 (±433.4)</t>
+    <t>3126.6 (±433.4)</t>
   </si>
   <si>
     <t>7578.6 (±479.3)</t>
@@ -673,7 +673,7 @@
     <t>152.2 (±40.2)</t>
   </si>
   <si>
-    <t>6023.4 (±396.7)</t>
+    <t>6025.4 (±396.7)</t>
   </si>
   <si>
     <t>172.8 (±115.6)</t>
@@ -736,7 +736,7 @@
     <t>4781.0 (±683.7)</t>
   </si>
   <si>
-    <t>2184.0 (±179.8)</t>
+    <t>2186.0 (±179.8)</t>
   </si>
   <si>
     <t>613.6 (±82.1)</t>
@@ -754,7 +754,7 @@
     <t>9.3% (±1.7%)</t>
   </si>
   <si>
-    <t>13.4% (±2.0%)</t>
+    <t>13.5% (±2.1%)</t>
   </si>
   <si>
     <t>24.1% (±1.9%)</t>
@@ -829,7 +829,7 @@
     <t>17.1% (±2.8%)</t>
   </si>
   <si>
-    <t>13.1% (±1.2%)</t>
+    <t>13.2% (±1.3%)</t>
   </si>
   <si>
     <t>12.3% (±1.9%)</t>
@@ -847,7 +847,7 @@
     <t>39.4(±6.5)</t>
   </si>
   <si>
-    <t>57.5(±7.9)</t>
+    <t>57.5(±8.0)</t>
   </si>
   <si>
     <t>233.0(±14.7)</t>
@@ -859,7 +859,7 @@
     <t>36.2(±9.6)</t>
   </si>
   <si>
-    <t>117.6(±7.7)</t>
+    <t>117.6(±7.8)</t>
   </si>
   <si>
     <t>6.2(±4.1)</t>
@@ -922,7 +922,7 @@
     <t>147.1(±21.0)</t>
   </si>
   <si>
-    <t>83.7(±6.9)</t>
+    <t>83.8(±6.9)</t>
   </si>
   <si>
     <t>60.6(±8.1)</t>
@@ -1036,7 +1036,7 @@
     <t>2581.0 (±336.5)</t>
   </si>
   <si>
-    <t>4863.6 (±634.0)</t>
+    <t>4868.6 (±634.0)</t>
   </si>
   <si>
     <t>12170.6 (±788.4)</t>
@@ -1048,7 +1048,7 @@
     <t>221.8 (±60.0)</t>
   </si>
   <si>
-    <t>9318.0 (±711.7)</t>
+    <t>9319.0 (±711.7)</t>
   </si>
   <si>
     <t>296.0 (±203.4)</t>
@@ -1111,7 +1111,7 @@
     <t>6490.0 (±1236.5)</t>
   </si>
   <si>
-    <t>3694.8 (±276.2)</t>
+    <t>3700.8 (±276.2)</t>
   </si>
   <si>
     <t>883.6 (±135.2)</t>
@@ -1204,7 +1204,7 @@
     <t>13.6% (±2.9%)</t>
   </si>
   <si>
-    <t>13.9% (±1.2%)</t>
+    <t>13.9% (±1.1%)</t>
   </si>
   <si>
     <t>11.3% (±1.9%)</t>
@@ -1297,7 +1297,7 @@
     <t>98.3(±18.7)</t>
   </si>
   <si>
-    <t>70.1(±5.2)</t>
+    <t>70.2(±5.2)</t>
   </si>
   <si>
     <t>44.6(±6.8)</t>
@@ -1910,7 +1910,7 @@
         <v>14448</v>
       </c>
       <c r="H3">
-        <v>16628</v>
+        <v>16631</v>
       </c>
       <c r="I3">
         <v>14889</v>
@@ -1931,7 +1931,7 @@
         <v>15145.2</v>
       </c>
       <c r="O3">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="P3">
         <v>256.2</v>
@@ -1955,10 +1955,10 @@
         <v>5428677</v>
       </c>
       <c r="W3">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="X3">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="s">
         <v>151</v>
@@ -2218,7 +2218,7 @@
         <v>18898</v>
       </c>
       <c r="H7">
-        <v>22237</v>
+        <v>22236</v>
       </c>
       <c r="I7">
         <v>18942.4</v>
@@ -2239,7 +2239,7 @@
         <v>19258.3</v>
       </c>
       <c r="O7">
-        <v>3294.6</v>
+        <v>3293.6</v>
       </c>
       <c r="P7">
         <v>315.9</v>
@@ -3835,7 +3835,7 @@
         <v>9602</v>
       </c>
       <c r="H28">
-        <v>11456</v>
+        <v>11460</v>
       </c>
       <c r="I28">
         <v>9945.199999999993</v>
@@ -3856,7 +3856,7 @@
         <v>10066.39999999999</v>
       </c>
       <c r="O28">
-        <v>1510.8</v>
+        <v>1514.8</v>
       </c>
       <c r="P28">
         <v>121.2</v>
@@ -3880,10 +3880,10 @@
         <v>2664447</v>
       </c>
       <c r="W28">
-        <v>56.7</v>
+        <v>56.9</v>
       </c>
       <c r="X28">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y28" t="s">
         <v>176</v>
@@ -4387,7 +4387,7 @@
         <v>22144</v>
       </c>
       <c r="H3">
-        <v>26364</v>
+        <v>26366</v>
       </c>
       <c r="I3">
         <v>23239.40000000001</v>
@@ -4408,16 +4408,16 @@
         <v>23672.80000000001</v>
       </c>
       <c r="O3">
-        <v>3124.6</v>
+        <v>3126.6</v>
       </c>
       <c r="P3">
         <v>433.4</v>
       </c>
       <c r="Q3">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="s">
         <v>183</v>
@@ -4435,7 +4435,7 @@
         <v>57.5</v>
       </c>
       <c r="X3">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="s">
         <v>276</v>
@@ -4695,7 +4695,7 @@
         <v>31017</v>
       </c>
       <c r="H7">
-        <v>37238</v>
+        <v>37240</v>
       </c>
       <c r="I7">
         <v>31214.60000000001</v>
@@ -4716,7 +4716,7 @@
         <v>31611.30000000001</v>
       </c>
       <c r="O7">
-        <v>6023.4</v>
+        <v>6025.4</v>
       </c>
       <c r="P7">
         <v>396.7</v>
@@ -4743,7 +4743,7 @@
         <v>117.6</v>
       </c>
       <c r="X7">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y7" t="s">
         <v>280</v>
@@ -6312,7 +6312,7 @@
         <v>16317</v>
       </c>
       <c r="H28">
-        <v>18798</v>
+        <v>18800</v>
       </c>
       <c r="I28">
         <v>16614</v>
@@ -6333,16 +6333,16 @@
         <v>16793.8</v>
       </c>
       <c r="O28">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="P28">
         <v>179.8</v>
       </c>
       <c r="Q28">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="R28">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="S28" t="s">
         <v>208</v>
@@ -6357,7 +6357,7 @@
         <v>2608746</v>
       </c>
       <c r="W28">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="X28">
         <v>6.9</v>
@@ -6864,7 +6864,7 @@
         <v>36592</v>
       </c>
       <c r="H3">
-        <v>42992</v>
+        <v>42997</v>
       </c>
       <c r="I3">
         <v>38128.4</v>
@@ -6885,7 +6885,7 @@
         <v>38762.4</v>
       </c>
       <c r="O3">
-        <v>4863.6</v>
+        <v>4868.6</v>
       </c>
       <c r="P3">
         <v>634</v>
@@ -7172,7 +7172,7 @@
         <v>49915</v>
       </c>
       <c r="H7">
-        <v>59475</v>
+        <v>59476</v>
       </c>
       <c r="I7">
         <v>50157</v>
@@ -7193,7 +7193,7 @@
         <v>50868.7</v>
       </c>
       <c r="O7">
-        <v>9318</v>
+        <v>9319</v>
       </c>
       <c r="P7">
         <v>711.7</v>
@@ -8789,7 +8789,7 @@
         <v>25919</v>
       </c>
       <c r="H28">
-        <v>30254</v>
+        <v>30260</v>
       </c>
       <c r="I28">
         <v>26559.2</v>
@@ -8810,7 +8810,7 @@
         <v>26835.4</v>
       </c>
       <c r="O28">
-        <v>3694.8</v>
+        <v>3700.8</v>
       </c>
       <c r="P28">
         <v>276.2</v>
@@ -8819,7 +8819,7 @@
         <v>13.9</v>
       </c>
       <c r="R28">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="S28" t="s">
         <v>333</v>
@@ -8834,7 +8834,7 @@
         <v>5273193</v>
       </c>
       <c r="W28">
-        <v>70.09999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="X28">
         <v>5.2</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(0-4) - (75-79).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(0-4) - (75-79).xlsx
@@ -250,10 +250,10 @@
     <t>1287.2 (±64.6)</t>
   </si>
   <si>
-    <t>23241.6 (±196.5)</t>
-  </si>
-  <si>
-    <t>5813.0 (±63.6)</t>
+    <t>23230.0 (±195.6)</t>
+  </si>
+  <si>
+    <t>5813.2 (±63.9)</t>
   </si>
   <si>
     <t>68089.8 (±1135.5)</t>
@@ -286,10 +286,10 @@
     <t>924.4 (±81.6)</t>
   </si>
   <si>
-    <t>1742.0 (±256.2)</t>
-  </si>
-  <si>
-    <t>4592.0 (±337.1)</t>
+    <t>1667.0 (±256.2)</t>
+  </si>
+  <si>
+    <t>4596.0 (±337.1)</t>
   </si>
   <si>
     <t>645.6 (±365.1)</t>
@@ -298,19 +298,19 @@
     <t>69.6 (±27.6)</t>
   </si>
   <si>
-    <t>3293.6 (±315.9)</t>
+    <t>3294.6 (±315.9)</t>
   </si>
   <si>
     <t>123.2 (±116.5)</t>
   </si>
   <si>
-    <t>-8.8 (±85.6)</t>
+    <t>-5.8 (±85.6)</t>
   </si>
   <si>
     <t>235.4 (±33.1)</t>
   </si>
   <si>
-    <t>6807.4 (±375.2)</t>
+    <t>6816.4 (±375.2)</t>
   </si>
   <si>
     <t>711.6 (±302.5)</t>
@@ -322,10 +322,10 @@
     <t>-0.4 (±16.2)</t>
   </si>
   <si>
-    <t>7595.0 (±2225.5)</t>
-  </si>
-  <si>
-    <t>-237.8 (±214.4)</t>
+    <t>7618.0 (±2225.5)</t>
+  </si>
+  <si>
+    <t>-191.8 (±214.4)</t>
   </si>
   <si>
     <t>7.8 (±3.5)</t>
@@ -337,16 +337,16 @@
     <t>50.4 (±31.5)</t>
   </si>
   <si>
-    <t>61.2 (±8.9)</t>
-  </si>
-  <si>
-    <t>111.8 (±64.6)</t>
-  </si>
-  <si>
-    <t>2262.4 (±196.5)</t>
-  </si>
-  <si>
-    <t>62.0 (±63.6)</t>
+    <t>63.2 (±8.9)</t>
+  </si>
+  <si>
+    <t>93.8 (±64.6)</t>
+  </si>
+  <si>
+    <t>2277.0 (±195.6)</t>
+  </si>
+  <si>
+    <t>66.8 (±63.9)</t>
   </si>
   <si>
     <t>13142.2 (±1135.5)</t>
@@ -355,19 +355,19 @@
     <t>1374.0 (±218.5)</t>
   </si>
   <si>
-    <t>6612.2 (±1530.2)</t>
+    <t>6636.2 (±1530.2)</t>
   </si>
   <si>
     <t>1709.0 (±574.2)</t>
   </si>
   <si>
-    <t>1514.8 (±121.2)</t>
-  </si>
-  <si>
-    <t>270.0 (±61.9)</t>
-  </si>
-  <si>
-    <t>9954.0 (±408.9)</t>
+    <t>1515.8 (±121.2)</t>
+  </si>
+  <si>
+    <t>274.0 (±61.9)</t>
+  </si>
+  <si>
+    <t>9018.0 (±408.9)</t>
   </si>
   <si>
     <t>664.6 (±176.7)</t>
@@ -379,10 +379,10 @@
     <t>8.2% (±0.8%)</t>
   </si>
   <si>
-    <t>11.7% (±1.9%)</t>
-  </si>
-  <si>
-    <t>23.3% (±2.1%)</t>
+    <t>11.2% (±1.9%)</t>
+  </si>
+  <si>
+    <t>23.3% (±2.0%)</t>
   </si>
   <si>
     <t>7.7% (±4.5%)</t>
@@ -397,7 +397,7 @@
     <t>1.4% (±1.3%)</t>
   </si>
   <si>
-    <t>-0.4% (±3.3%)</t>
+    <t>-0.2% (±3.4%)</t>
   </si>
   <si>
     <t>3.2% (±0.5%)</t>
@@ -418,7 +418,7 @@
     <t>10.0% (±3.1%)</t>
   </si>
   <si>
-    <t>-4.5% (±3.8%)</t>
+    <t>-3.7% (±3.7%)</t>
   </si>
   <si>
     <t>20.4% (±10.1%)</t>
@@ -430,13 +430,13 @@
     <t>8.5% (±5.5%)</t>
   </si>
   <si>
-    <t>11.0% (±1.7%)</t>
-  </si>
-  <si>
-    <t>8.7% (±5.2%)</t>
-  </si>
-  <si>
-    <t>9.7% (±0.9%)</t>
+    <t>11.4% (±1.8%)</t>
+  </si>
+  <si>
+    <t>7.3% (±5.1%)</t>
+  </si>
+  <si>
+    <t>9.8% (±0.9%)</t>
   </si>
   <si>
     <t>1.1% (±1.1%)</t>
@@ -448,19 +448,19 @@
     <t>10.1% (±1.8%)</t>
   </si>
   <si>
-    <t>13.9% (±3.5%)</t>
+    <t>14.0% (±3.6%)</t>
   </si>
   <si>
     <t>8.6% (±3.0%)</t>
   </si>
   <si>
-    <t>15.2% (±1.4%)</t>
-  </si>
-  <si>
-    <t>9.6% (±2.3%)</t>
-  </si>
-  <si>
-    <t>22.3% (±1.1%)</t>
+    <t>15.2% (±1.3%)</t>
+  </si>
+  <si>
+    <t>9.8% (±2.4%)</t>
+  </si>
+  <si>
+    <t>20.2% (±1.1%)</t>
   </si>
   <si>
     <t>5.5% (±1.6%)</t>
@@ -472,10 +472,10 @@
     <t>21.9(±1.9)</t>
   </si>
   <si>
-    <t>32.1(±4.7)</t>
-  </si>
-  <si>
-    <t>136.7(±10.0)</t>
+    <t>30.7(±4.7)</t>
+  </si>
+  <si>
+    <t>136.8(±10.0)</t>
   </si>
   <si>
     <t>33.3(±18.9)</t>
@@ -490,7 +490,7 @@
     <t>4.5(±4.2)</t>
   </si>
   <si>
-    <t>-1.4(±13.4)</t>
+    <t>-0.9(±13.3)</t>
   </si>
   <si>
     <t>9.1(±1.2)</t>
@@ -508,10 +508,10 @@
     <t>-0.2(±9.5)</t>
   </si>
   <si>
-    <t>27.3(±8.0)</t>
-  </si>
-  <si>
-    <t>-25.2(±22.7)</t>
+    <t>27.4(±8.0)</t>
+  </si>
+  <si>
+    <t>-20.3(±22.7)</t>
   </si>
   <si>
     <t>41.9(±18.9)</t>
@@ -523,16 +523,16 @@
     <t>17.1(±10.6)</t>
   </si>
   <si>
-    <t>26.0(±3.8)</t>
-  </si>
-  <si>
-    <t>37.0(±21.5)</t>
-  </si>
-  <si>
-    <t>27.4(±2.4)</t>
-  </si>
-  <si>
-    <t>2.5(±2.5)</t>
+    <t>26.8(±3.8)</t>
+  </si>
+  <si>
+    <t>31.1(±21.4)</t>
+  </si>
+  <si>
+    <t>27.6(±2.3)</t>
+  </si>
+  <si>
+    <t>2.7(±2.5)</t>
   </si>
   <si>
     <t>71.3(±6.2)</t>
@@ -541,7 +541,7 @@
     <t>27.5(±4.3)</t>
   </si>
   <si>
-    <t>71.4(±16.5)</t>
+    <t>71.6(±16.6)</t>
   </si>
   <si>
     <t>51.0(±17.1)</t>
@@ -550,10 +550,10 @@
     <t>56.9(±4.5)</t>
   </si>
   <si>
-    <t>27.9(±6.4)</t>
-  </si>
-  <si>
-    <t>44.6(±1.8)</t>
+    <t>28.3(±6.4)</t>
+  </si>
+  <si>
+    <t>40.4(±1.8)</t>
   </si>
   <si>
     <t>13.8(±3.7)</t>
@@ -625,10 +625,10 @@
     <t>1907.0 (±36.2)</t>
   </si>
   <si>
-    <t>32229.4 (±247.0)</t>
-  </si>
-  <si>
-    <t>8424.4 (±82.7)</t>
+    <t>32195.2 (±259.9)</t>
+  </si>
+  <si>
+    <t>8424.8 (±82.9)</t>
   </si>
   <si>
     <t>121834.4 (±1562.1)</t>
@@ -661,10 +661,10 @@
     <t>1656.6 (±273.7)</t>
   </si>
   <si>
-    <t>3126.6 (±433.4)</t>
-  </si>
-  <si>
-    <t>7578.6 (±479.3)</t>
+    <t>2899.6 (±433.4)</t>
+  </si>
+  <si>
+    <t>7579.6 (±479.3)</t>
   </si>
   <si>
     <t>1180.6 (±444.6)</t>
@@ -673,19 +673,19 @@
     <t>152.2 (±40.2)</t>
   </si>
   <si>
-    <t>6025.4 (±396.7)</t>
+    <t>6032.4 (±396.7)</t>
   </si>
   <si>
     <t>172.8 (±115.6)</t>
   </si>
   <si>
-    <t>63.2 (±110.4)</t>
+    <t>69.2 (±110.4)</t>
   </si>
   <si>
     <t>368.2 (±115.8)</t>
   </si>
   <si>
-    <t>12116.8 (±1109.4)</t>
+    <t>12147.8 (±1109.4)</t>
   </si>
   <si>
     <t>996.8 (±552.8)</t>
@@ -697,10 +697,10 @@
     <t>56.2 (±18.1)</t>
   </si>
   <si>
-    <t>19740.4 (±3368.5)</t>
-  </si>
-  <si>
-    <t>-264.4 (±272.1)</t>
+    <t>19800.4 (±3368.5)</t>
+  </si>
+  <si>
+    <t>-107.4 (±272.1)</t>
   </si>
   <si>
     <t>-1.2 (±5.9)</t>
@@ -712,16 +712,16 @@
     <t>99.0 (±28.3)</t>
   </si>
   <si>
-    <t>128.4 (±28.0)</t>
-  </si>
-  <si>
-    <t>340.0 (±36.2)</t>
-  </si>
-  <si>
-    <t>4302.6 (±247.0)</t>
-  </si>
-  <si>
-    <t>169.6 (±82.7)</t>
+    <t>129.4 (±28.0)</t>
+  </si>
+  <si>
+    <t>308.0 (±36.2)</t>
+  </si>
+  <si>
+    <t>4379.8 (±259.9)</t>
+  </si>
+  <si>
+    <t>167.2 (±82.9)</t>
   </si>
   <si>
     <t>25421.6 (±1562.1)</t>
@@ -730,19 +730,19 @@
     <t>2311.8 (±344.3)</t>
   </si>
   <si>
-    <t>14368.6 (±1087.5)</t>
+    <t>14410.6 (±1087.5)</t>
   </si>
   <si>
     <t>4781.0 (±683.7)</t>
   </si>
   <si>
-    <t>2186.0 (±179.8)</t>
-  </si>
-  <si>
-    <t>613.6 (±82.1)</t>
-  </si>
-  <si>
-    <t>17080.0 (±1094.2)</t>
+    <t>2188.0 (±179.8)</t>
+  </si>
+  <si>
+    <t>629.6 (±82.1)</t>
+  </si>
+  <si>
+    <t>16259.0 (±1094.2)</t>
   </si>
   <si>
     <t>1424.2 (±451.2)</t>
@@ -754,7 +754,7 @@
     <t>9.3% (±1.7%)</t>
   </si>
   <si>
-    <t>13.5% (±2.1%)</t>
+    <t>12.5% (±2.1%)</t>
   </si>
   <si>
     <t>24.1% (±1.9%)</t>
@@ -772,13 +772,13 @@
     <t>1.3% (±0.9%)</t>
   </si>
   <si>
-    <t>1.5% (±2.6%)</t>
+    <t>1.6% (±2.6%)</t>
   </si>
   <si>
     <t>2.9% (±1.0%)</t>
   </si>
   <si>
-    <t>9.5% (±1.0%)</t>
+    <t>9.5% (±0.9%)</t>
   </si>
   <si>
     <t>4.0% (±2.3%)</t>
@@ -790,10 +790,10 @@
     <t>11.6% (±4.0%)</t>
   </si>
   <si>
-    <t>16.8% (±3.3%)</t>
-  </si>
-  <si>
-    <t>-3.2% (±3.1%)</t>
+    <t>16.8% (±3.2%)</t>
+  </si>
+  <si>
+    <t>-1.3% (±3.2%)</t>
   </si>
   <si>
     <t>-1.7% (±7.8%)</t>
@@ -805,13 +805,13 @@
     <t>10.1% (±3.1%)</t>
   </si>
   <si>
-    <t>15.2% (±3.7%)</t>
-  </si>
-  <si>
-    <t>17.8% (±2.2%)</t>
-  </si>
-  <si>
-    <t>13.3% (±0.8%)</t>
+    <t>15.3% (±3.7%)</t>
+  </si>
+  <si>
+    <t>16.2% (±2.2%)</t>
+  </si>
+  <si>
+    <t>13.6% (±0.9%)</t>
   </si>
   <si>
     <t>2.0% (±1.0%)</t>
@@ -823,19 +823,19 @@
     <t>9.8% (±1.6%)</t>
   </si>
   <si>
-    <t>18.4% (±1.6%)</t>
+    <t>18.5% (±1.7%)</t>
   </si>
   <si>
     <t>17.1% (±2.8%)</t>
   </si>
   <si>
-    <t>13.2% (±1.3%)</t>
-  </si>
-  <si>
-    <t>12.3% (±1.9%)</t>
-  </si>
-  <si>
-    <t>20.4% (±1.5%)</t>
+    <t>13.2% (±1.2%)</t>
+  </si>
+  <si>
+    <t>12.6% (±1.8%)</t>
+  </si>
+  <si>
+    <t>19.4% (±1.5%)</t>
   </si>
   <si>
     <t>8.3% (±2.8%)</t>
@@ -847,7 +847,7 @@
     <t>39.4(±6.5)</t>
   </si>
   <si>
-    <t>57.5(±8.0)</t>
+    <t>53.3(±8.0)</t>
   </si>
   <si>
     <t>233.0(±14.7)</t>
@@ -859,19 +859,19 @@
     <t>36.2(±9.6)</t>
   </si>
   <si>
-    <t>117.6(±7.8)</t>
+    <t>117.8(±7.7)</t>
   </si>
   <si>
     <t>6.2(±4.1)</t>
   </si>
   <si>
-    <t>10.4(±18.1)</t>
+    <t>11.4(±18.1)</t>
   </si>
   <si>
     <t>14.1(±4.4)</t>
   </si>
   <si>
-    <t>39.0(±3.6)</t>
+    <t>39.1(±3.6)</t>
   </si>
   <si>
     <t>20.4(±11.2)</t>
@@ -883,10 +883,10 @@
     <t>31.0(±9.9)</t>
   </si>
   <si>
-    <t>72.1(±12.3)</t>
-  </si>
-  <si>
-    <t>-31.0(±31.9)</t>
+    <t>72.3(±12.3)</t>
+  </si>
+  <si>
+    <t>-12.6(±31.9)</t>
   </si>
   <si>
     <t>-6.4(±31.6)</t>
@@ -898,16 +898,16 @@
     <t>32.4(±9.3)</t>
   </si>
   <si>
-    <t>49.9(±10.8)</t>
-  </si>
-  <si>
-    <t>113.6(±12.1)</t>
-  </si>
-  <si>
-    <t>51.7(±2.9)</t>
-  </si>
-  <si>
-    <t>6.5(±3.1)</t>
+    <t>50.3(±10.8)</t>
+  </si>
+  <si>
+    <t>102.9(±12.1)</t>
+  </si>
+  <si>
+    <t>52.6(±3.1)</t>
+  </si>
+  <si>
+    <t>6.4(±3.2)</t>
   </si>
   <si>
     <t>142.4(±8.8)</t>
@@ -916,19 +916,19 @@
     <t>50.1(±7.4)</t>
   </si>
   <si>
-    <t>157.3(±11.9)</t>
+    <t>157.7(±11.9)</t>
   </si>
   <si>
     <t>147.1(±21.0)</t>
   </si>
   <si>
-    <t>83.8(±6.9)</t>
-  </si>
-  <si>
-    <t>60.6(±8.1)</t>
-  </si>
-  <si>
-    <t>77.1(±5.0)</t>
+    <t>83.9(±6.9)</t>
+  </si>
+  <si>
+    <t>62.2(±8.1)</t>
+  </si>
+  <si>
+    <t>73.4(±5.0)</t>
   </si>
   <si>
     <t>28.6(±9.1)</t>
@@ -1000,10 +1000,10 @@
     <t>3194.2 (±85.8)</t>
   </si>
   <si>
-    <t>55471.0 (±399.1)</t>
-  </si>
-  <si>
-    <t>14237.4 (±117.3)</t>
+    <t>55425.2 (±409.9)</t>
+  </si>
+  <si>
+    <t>14238.0 (±117.8)</t>
   </si>
   <si>
     <t>189924.2 (±2670.8)</t>
@@ -1036,10 +1036,10 @@
     <t>2581.0 (±336.5)</t>
   </si>
   <si>
-    <t>4868.6 (±634.0)</t>
-  </si>
-  <si>
-    <t>12170.6 (±788.4)</t>
+    <t>4566.6 (±634.0)</t>
+  </si>
+  <si>
+    <t>12175.6 (±788.4)</t>
   </si>
   <si>
     <t>1826.2 (±784.3)</t>
@@ -1048,19 +1048,19 @@
     <t>221.8 (±60.0)</t>
   </si>
   <si>
-    <t>9319.0 (±711.7)</t>
+    <t>9327.0 (±711.7)</t>
   </si>
   <si>
     <t>296.0 (±203.4)</t>
   </si>
   <si>
-    <t>54.4 (±191.8)</t>
+    <t>63.4 (±191.8)</t>
   </si>
   <si>
     <t>603.6 (±123.5)</t>
   </si>
   <si>
-    <t>18924.2 (±1040.1)</t>
+    <t>18964.2 (±1040.1)</t>
   </si>
   <si>
     <t>1708.4 (±838.7)</t>
@@ -1072,10 +1072,10 @@
     <t>55.8 (±22.4)</t>
   </si>
   <si>
-    <t>27335.4 (±5582.0)</t>
-  </si>
-  <si>
-    <t>-502.2 (±481.5)</t>
+    <t>27418.4 (±5582.0)</t>
+  </si>
+  <si>
+    <t>-299.2 (±481.5)</t>
   </si>
   <si>
     <t>6.6 (±5.7)</t>
@@ -1087,16 +1087,16 @@
     <t>149.4 (±54.5)</t>
   </si>
   <si>
-    <t>189.6 (±29.5)</t>
-  </si>
-  <si>
-    <t>451.8 (±85.8)</t>
-  </si>
-  <si>
-    <t>6565.0 (±399.1)</t>
-  </si>
-  <si>
-    <t>231.6 (±117.3)</t>
+    <t>192.6 (±29.5)</t>
+  </si>
+  <si>
+    <t>401.8 (±85.8)</t>
+  </si>
+  <si>
+    <t>6656.8 (±409.9)</t>
+  </si>
+  <si>
+    <t>234.0 (±117.8)</t>
   </si>
   <si>
     <t>38563.8 (±2670.8)</t>
@@ -1105,19 +1105,19 @@
     <t>3685.8 (±547.8)</t>
   </si>
   <si>
-    <t>20980.8 (±2503.1)</t>
+    <t>21046.8 (±2503.1)</t>
   </si>
   <si>
     <t>6490.0 (±1236.5)</t>
   </si>
   <si>
-    <t>3700.8 (±276.2)</t>
-  </si>
-  <si>
-    <t>883.6 (±135.2)</t>
-  </si>
-  <si>
-    <t>27062.0 (±1464.8)</t>
+    <t>3703.8 (±276.2)</t>
+  </si>
+  <si>
+    <t>903.6 (±135.2)</t>
+  </si>
+  <si>
+    <t>25277.0 (±1464.8)</t>
   </si>
   <si>
     <t>2088.8 (±607.9)</t>
@@ -1129,7 +1129,7 @@
     <t>8.8% (±1.2%)</t>
   </si>
   <si>
-    <t>12.8% (±1.9%)</t>
+    <t>12.0% (±1.9%)</t>
   </si>
   <si>
     <t>23.8% (±1.9%)</t>
@@ -1147,7 +1147,7 @@
     <t>1.4% (±1.0%)</t>
   </si>
   <si>
-    <t>0.8% (±2.8%)</t>
+    <t>1.0% (±2.9%)</t>
   </si>
   <si>
     <t>3.0% (±0.6%)</t>
@@ -1165,10 +1165,10 @@
     <t>6.8% (±2.8%)</t>
   </si>
   <si>
-    <t>14.1% (±3.2%)</t>
-  </si>
-  <si>
-    <t>-3.7% (±3.4%)</t>
+    <t>14.2% (±3.2%)</t>
+  </si>
+  <si>
+    <t>-2.2% (±3.4%)</t>
   </si>
   <si>
     <t>6.1% (±5.3%)</t>
@@ -1180,13 +1180,13 @@
     <t>9.5% (±3.7%)</t>
   </si>
   <si>
-    <t>13.5% (±2.3%)</t>
-  </si>
-  <si>
-    <t>14.1% (±2.9%)</t>
-  </si>
-  <si>
-    <t>11.8% (±0.8%)</t>
+    <t>13.7% (±2.3%)</t>
+  </si>
+  <si>
+    <t>12.6% (±3.0%)</t>
+  </si>
+  <si>
+    <t>12.0% (±0.8%)</t>
   </si>
   <si>
     <t>1.6% (±0.8%)</t>
@@ -1198,7 +1198,7 @@
     <t>9.9% (±1.6%)</t>
   </si>
   <si>
-    <t>16.7% (±2.3%)</t>
+    <t>16.8% (±2.3%)</t>
   </si>
   <si>
     <t>13.6% (±2.9%)</t>
@@ -1207,10 +1207,10 @@
     <t>13.9% (±1.1%)</t>
   </si>
   <si>
-    <t>11.3% (±1.9%)</t>
-  </si>
-  <si>
-    <t>21.1% (±1.4%)</t>
+    <t>11.6% (±1.9%)</t>
+  </si>
+  <si>
+    <t>19.7% (±1.3%)</t>
   </si>
   <si>
     <t>7.1% (±2.2%)</t>
@@ -1222,10 +1222,10 @@
     <t>30.6(±4.0)</t>
   </si>
   <si>
-    <t>44.8(±5.8)</t>
-  </si>
-  <si>
-    <t>184.0(±12.0)</t>
+    <t>42.0(±5.9)</t>
+  </si>
+  <si>
+    <t>184.1(±11.9)</t>
   </si>
   <si>
     <t>47.6(±20.5)</t>
@@ -1234,19 +1234,19 @@
     <t>26.0(±7.0)</t>
   </si>
   <si>
-    <t>90.9(±6.9)</t>
+    <t>91.0(±6.9)</t>
   </si>
   <si>
     <t>5.3(±3.7)</t>
   </si>
   <si>
-    <t>4.3(±15.4)</t>
+    <t>5.1(±15.3)</t>
   </si>
   <si>
     <t>11.6(±2.3)</t>
   </si>
   <si>
-    <t>30.0(±1.6)</t>
+    <t>30.0(±1.7)</t>
   </si>
   <si>
     <t>17.2(±8.4)</t>
@@ -1258,10 +1258,10 @@
     <t>15.9(±6.3)</t>
   </si>
   <si>
-    <t>49.5(±10.1)</t>
-  </si>
-  <si>
-    <t>-28.0(±26.8)</t>
+    <t>49.7(±10.1)</t>
+  </si>
+  <si>
+    <t>-16.7(±26.8)</t>
   </si>
   <si>
     <t>17.7(±15.3)</t>
@@ -1273,16 +1273,16 @@
     <t>24.9(±9.0)</t>
   </si>
   <si>
-    <t>38.5(±6.0)</t>
-  </si>
-  <si>
-    <t>75.2(±14.3)</t>
-  </si>
-  <si>
-    <t>39.6(±2.4)</t>
-  </si>
-  <si>
-    <t>4.5(±2.3)</t>
+    <t>39.1(±6.0)</t>
+  </si>
+  <si>
+    <t>66.9(±14.2)</t>
+  </si>
+  <si>
+    <t>40.1(±2.5)</t>
+  </si>
+  <si>
+    <t>4.6(±2.2)</t>
   </si>
   <si>
     <t>106.3(±7.4)</t>
@@ -1291,19 +1291,19 @@
     <t>38.3(±5.7)</t>
   </si>
   <si>
-    <t>114.0(±13.6)</t>
+    <t>114.4(±13.6)</t>
   </si>
   <si>
     <t>98.3(±18.7)</t>
   </si>
   <si>
-    <t>70.2(±5.2)</t>
-  </si>
-  <si>
-    <t>44.6(±6.8)</t>
-  </si>
-  <si>
-    <t>60.8(±3.3)</t>
+    <t>70.2(±5.3)</t>
+  </si>
+  <si>
+    <t>45.6(±6.8)</t>
+  </si>
+  <si>
+    <t>56.8(±3.3)</t>
   </si>
   <si>
     <t>21.3(±6.2)</t>
@@ -1910,7 +1910,7 @@
         <v>14448</v>
       </c>
       <c r="H3">
-        <v>16631</v>
+        <v>16556</v>
       </c>
       <c r="I3">
         <v>14889</v>
@@ -1931,13 +1931,13 @@
         <v>15145.2</v>
       </c>
       <c r="O3">
-        <v>1742</v>
+        <v>1667</v>
       </c>
       <c r="P3">
         <v>256.2</v>
       </c>
       <c r="Q3">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="R3">
         <v>1.9</v>
@@ -1955,7 +1955,7 @@
         <v>5428677</v>
       </c>
       <c r="W3">
-        <v>32.1</v>
+        <v>30.7</v>
       </c>
       <c r="X3">
         <v>4.7</v>
@@ -1987,7 +1987,7 @@
         <v>18810</v>
       </c>
       <c r="H4">
-        <v>24290</v>
+        <v>24294</v>
       </c>
       <c r="I4">
         <v>19698.00000000001</v>
@@ -2008,7 +2008,7 @@
         <v>20035.10000000001</v>
       </c>
       <c r="O4">
-        <v>4592</v>
+        <v>4596</v>
       </c>
       <c r="P4">
         <v>337.1</v>
@@ -2017,7 +2017,7 @@
         <v>23.3</v>
       </c>
       <c r="R4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S4" t="s">
         <v>59</v>
@@ -2032,7 +2032,7 @@
         <v>3360300</v>
       </c>
       <c r="W4">
-        <v>136.7</v>
+        <v>136.8</v>
       </c>
       <c r="X4">
         <v>10</v>
@@ -2218,7 +2218,7 @@
         <v>18898</v>
       </c>
       <c r="H7">
-        <v>22236</v>
+        <v>22237</v>
       </c>
       <c r="I7">
         <v>18942.4</v>
@@ -2239,7 +2239,7 @@
         <v>19258.3</v>
       </c>
       <c r="O7">
-        <v>3293.6</v>
+        <v>3294.6</v>
       </c>
       <c r="P7">
         <v>315.9</v>
@@ -2372,7 +2372,7 @@
         <v>2284</v>
       </c>
       <c r="H9">
-        <v>2451</v>
+        <v>2454</v>
       </c>
       <c r="I9">
         <v>2459.799999999999</v>
@@ -2393,16 +2393,16 @@
         <v>2545.399999999999</v>
       </c>
       <c r="O9">
-        <v>-8.800000000000001</v>
+        <v>-5.8</v>
       </c>
       <c r="P9">
         <v>85.59999999999999</v>
       </c>
       <c r="Q9">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="R9">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="S9" t="s">
         <v>64</v>
@@ -2417,10 +2417,10 @@
         <v>642243</v>
       </c>
       <c r="W9">
-        <v>-1.4</v>
+        <v>-0.9</v>
       </c>
       <c r="X9">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="Y9" t="s">
         <v>157</v>
@@ -2526,7 +2526,7 @@
         <v>70251</v>
       </c>
       <c r="H11">
-        <v>77890</v>
+        <v>77899</v>
       </c>
       <c r="I11">
         <v>71082.60000000002</v>
@@ -2547,7 +2547,7 @@
         <v>71457.80000000002</v>
       </c>
       <c r="O11">
-        <v>6807.4</v>
+        <v>6816.4</v>
       </c>
       <c r="P11">
         <v>375.2</v>
@@ -2834,7 +2834,7 @@
         <v>71105</v>
       </c>
       <c r="H15">
-        <v>83503</v>
+        <v>83526</v>
       </c>
       <c r="I15">
         <v>75908.00000000001</v>
@@ -2855,7 +2855,7 @@
         <v>78133.50000000001</v>
       </c>
       <c r="O15">
-        <v>7595</v>
+        <v>7618</v>
       </c>
       <c r="P15">
         <v>2225.5</v>
@@ -2879,7 +2879,7 @@
         <v>27826888</v>
       </c>
       <c r="W15">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="X15">
         <v>8</v>
@@ -2911,7 +2911,7 @@
         <v>4729</v>
       </c>
       <c r="H16">
-        <v>5012</v>
+        <v>5058</v>
       </c>
       <c r="I16">
         <v>5249.799999999998</v>
@@ -2932,16 +2932,16 @@
         <v>5464.199999999998</v>
       </c>
       <c r="O16">
-        <v>-237.8</v>
+        <v>-191.8</v>
       </c>
       <c r="P16">
         <v>214.4</v>
       </c>
       <c r="Q16">
-        <v>-4.5</v>
+        <v>-3.7</v>
       </c>
       <c r="R16">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="S16" t="s">
         <v>71</v>
@@ -2956,7 +2956,7 @@
         <v>943610</v>
       </c>
       <c r="W16">
-        <v>-25.2</v>
+        <v>-20.3</v>
       </c>
       <c r="X16">
         <v>22.7</v>
@@ -3219,7 +3219,7 @@
         <v>528</v>
       </c>
       <c r="H20">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="I20">
         <v>555.8</v>
@@ -3240,16 +3240,16 @@
         <v>564.6999999999999</v>
       </c>
       <c r="O20">
-        <v>61.2</v>
+        <v>63.2</v>
       </c>
       <c r="P20">
         <v>8.9</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="R20">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="s">
         <v>75</v>
@@ -3264,7 +3264,7 @@
         <v>235420</v>
       </c>
       <c r="W20">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="X20">
         <v>3.8</v>
@@ -3296,7 +3296,7 @@
         <v>1160</v>
       </c>
       <c r="H21">
-        <v>1399</v>
+        <v>1381</v>
       </c>
       <c r="I21">
         <v>1287.2</v>
@@ -3317,16 +3317,16 @@
         <v>1351.8</v>
       </c>
       <c r="O21">
-        <v>111.8</v>
+        <v>93.8</v>
       </c>
       <c r="P21">
         <v>64.59999999999999</v>
       </c>
       <c r="Q21">
-        <v>8.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="R21">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="S21" t="s">
         <v>76</v>
@@ -3341,10 +3341,10 @@
         <v>301760</v>
       </c>
       <c r="W21">
-        <v>37</v>
+        <v>31.1</v>
       </c>
       <c r="X21">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Y21" t="s">
         <v>169</v>
@@ -3358,49 +3358,49 @@
         <v>46</v>
       </c>
       <c r="C22">
-        <v>22827</v>
+        <v>22828</v>
       </c>
       <c r="D22">
-        <v>22748</v>
+        <v>22715</v>
       </c>
       <c r="E22">
-        <v>22411</v>
+        <v>22410</v>
       </c>
       <c r="F22">
-        <v>22919</v>
+        <v>22898</v>
       </c>
       <c r="G22">
-        <v>23087</v>
+        <v>23083</v>
       </c>
       <c r="H22">
-        <v>25504</v>
+        <v>25507</v>
       </c>
       <c r="I22">
-        <v>23241.60000000001</v>
+        <v>23230</v>
       </c>
       <c r="J22">
-        <v>224.2</v>
+        <v>223.1</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>196.5</v>
+        <v>195.6</v>
       </c>
       <c r="M22">
-        <v>23045.10000000001</v>
+        <v>23034.40000000001</v>
       </c>
       <c r="N22">
-        <v>23438.10000000001</v>
+        <v>23425.6</v>
       </c>
       <c r="O22">
-        <v>2262.4</v>
+        <v>2277</v>
       </c>
       <c r="P22">
-        <v>196.5</v>
+        <v>195.6</v>
       </c>
       <c r="Q22">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R22">
         <v>0.9</v>
@@ -3418,10 +3418,10 @@
         <v>8258576</v>
       </c>
       <c r="W22">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="X22">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y22" t="s">
         <v>170</v>
@@ -3447,34 +3447,34 @@
         <v>5717</v>
       </c>
       <c r="G23">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="H23">
-        <v>5875</v>
+        <v>5880</v>
       </c>
       <c r="I23">
-        <v>5812.999999999996</v>
+        <v>5813.199999999996</v>
       </c>
       <c r="J23">
-        <v>72.59999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>63.6</v>
+        <v>63.9</v>
       </c>
       <c r="M23">
-        <v>5749.399999999996</v>
+        <v>5749.299999999997</v>
       </c>
       <c r="N23">
-        <v>5876.599999999997</v>
+        <v>5877.099999999996</v>
       </c>
       <c r="O23">
-        <v>62</v>
+        <v>66.8</v>
       </c>
       <c r="P23">
-        <v>63.6</v>
+        <v>63.9</v>
       </c>
       <c r="Q23">
         <v>1.1</v>
@@ -3495,7 +3495,7 @@
         <v>2520742</v>
       </c>
       <c r="W23">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="X23">
         <v>2.5</v>
@@ -3681,7 +3681,7 @@
         <v>43890</v>
       </c>
       <c r="H26">
-        <v>54051</v>
+        <v>54075</v>
       </c>
       <c r="I26">
         <v>47438.79999999997</v>
@@ -3702,16 +3702,16 @@
         <v>48968.99999999997</v>
       </c>
       <c r="O26">
-        <v>6612.2</v>
+        <v>6636.2</v>
       </c>
       <c r="P26">
         <v>1530.2</v>
       </c>
       <c r="Q26">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="R26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S26" t="s">
         <v>81</v>
@@ -3726,10 +3726,10 @@
         <v>9262886</v>
       </c>
       <c r="W26">
-        <v>71.40000000000001</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="X26">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="Y26" t="s">
         <v>174</v>
@@ -3835,7 +3835,7 @@
         <v>9602</v>
       </c>
       <c r="H28">
-        <v>11460</v>
+        <v>11461</v>
       </c>
       <c r="I28">
         <v>9945.199999999993</v>
@@ -3856,7 +3856,7 @@
         <v>10066.39999999999</v>
       </c>
       <c r="O28">
-        <v>1514.8</v>
+        <v>1515.8</v>
       </c>
       <c r="P28">
         <v>121.2</v>
@@ -3865,7 +3865,7 @@
         <v>15.2</v>
       </c>
       <c r="R28">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S28" t="s">
         <v>83</v>
@@ -3912,7 +3912,7 @@
         <v>2706</v>
       </c>
       <c r="H29">
-        <v>3070</v>
+        <v>3074</v>
       </c>
       <c r="I29">
         <v>2800.000000000001</v>
@@ -3933,16 +3933,16 @@
         <v>2861.900000000001</v>
       </c>
       <c r="O29">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P29">
         <v>61.9</v>
       </c>
       <c r="Q29">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R29">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S29" t="s">
         <v>84</v>
@@ -3957,7 +3957,7 @@
         <v>968839</v>
       </c>
       <c r="W29">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="X29">
         <v>6.4</v>
@@ -3989,7 +3989,7 @@
         <v>43834</v>
       </c>
       <c r="H30">
-        <v>54502</v>
+        <v>53566</v>
       </c>
       <c r="I30">
         <v>44547.99999999999</v>
@@ -4010,13 +4010,13 @@
         <v>44956.89999999999</v>
       </c>
       <c r="O30">
-        <v>9954</v>
+        <v>9018</v>
       </c>
       <c r="P30">
         <v>408.9</v>
       </c>
       <c r="Q30">
-        <v>22.3</v>
+        <v>20.2</v>
       </c>
       <c r="R30">
         <v>1.1</v>
@@ -4034,7 +4034,7 @@
         <v>22338454</v>
       </c>
       <c r="W30">
-        <v>44.6</v>
+        <v>40.4</v>
       </c>
       <c r="X30">
         <v>1.8</v>
@@ -4387,7 +4387,7 @@
         <v>22144</v>
       </c>
       <c r="H3">
-        <v>26366</v>
+        <v>26139</v>
       </c>
       <c r="I3">
         <v>23239.40000000001</v>
@@ -4408,13 +4408,13 @@
         <v>23672.80000000001</v>
       </c>
       <c r="O3">
-        <v>3126.6</v>
+        <v>2899.6</v>
       </c>
       <c r="P3">
         <v>433.4</v>
       </c>
       <c r="Q3">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="R3">
         <v>2.1</v>
@@ -4432,7 +4432,7 @@
         <v>5437001</v>
       </c>
       <c r="W3">
-        <v>57.5</v>
+        <v>53.3</v>
       </c>
       <c r="X3">
         <v>8</v>
@@ -4464,7 +4464,7 @@
         <v>30368</v>
       </c>
       <c r="H4">
-        <v>39033</v>
+        <v>39034</v>
       </c>
       <c r="I4">
         <v>31454.40000000001</v>
@@ -4485,7 +4485,7 @@
         <v>31933.7</v>
       </c>
       <c r="O4">
-        <v>7578.6</v>
+        <v>7579.6</v>
       </c>
       <c r="P4">
         <v>479.3</v>
@@ -4695,7 +4695,7 @@
         <v>31017</v>
       </c>
       <c r="H7">
-        <v>37240</v>
+        <v>37247</v>
       </c>
       <c r="I7">
         <v>31214.60000000001</v>
@@ -4716,7 +4716,7 @@
         <v>31611.30000000001</v>
       </c>
       <c r="O7">
-        <v>6025.4</v>
+        <v>6032.4</v>
       </c>
       <c r="P7">
         <v>396.7</v>
@@ -4740,10 +4740,10 @@
         <v>5122811</v>
       </c>
       <c r="W7">
-        <v>117.6</v>
+        <v>117.8</v>
       </c>
       <c r="X7">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Y7" t="s">
         <v>280</v>
@@ -4849,7 +4849,7 @@
         <v>3965</v>
       </c>
       <c r="H9">
-        <v>4275</v>
+        <v>4281</v>
       </c>
       <c r="I9">
         <v>4211.800000000001</v>
@@ -4870,13 +4870,13 @@
         <v>4322.200000000001</v>
       </c>
       <c r="O9">
-        <v>63.2</v>
+        <v>69.2</v>
       </c>
       <c r="P9">
         <v>110.4</v>
       </c>
       <c r="Q9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="R9">
         <v>2.6</v>
@@ -4894,7 +4894,7 @@
         <v>609288</v>
       </c>
       <c r="W9">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="X9">
         <v>18.1</v>
@@ -5003,7 +5003,7 @@
         <v>124078</v>
       </c>
       <c r="H11">
-        <v>139807</v>
+        <v>139838</v>
       </c>
       <c r="I11">
         <v>127690.2</v>
@@ -5024,7 +5024,7 @@
         <v>128799.5999999999</v>
       </c>
       <c r="O11">
-        <v>12116.8</v>
+        <v>12147.8</v>
       </c>
       <c r="P11">
         <v>1109.4</v>
@@ -5033,7 +5033,7 @@
         <v>9.5</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S11" t="s">
         <v>191</v>
@@ -5048,7 +5048,7 @@
         <v>31043740</v>
       </c>
       <c r="W11">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="X11">
         <v>3.6</v>
@@ -5311,7 +5311,7 @@
         <v>110153</v>
       </c>
       <c r="H15">
-        <v>137507</v>
+        <v>137567</v>
       </c>
       <c r="I15">
         <v>117766.6</v>
@@ -5332,7 +5332,7 @@
         <v>121135.1</v>
       </c>
       <c r="O15">
-        <v>19740.4</v>
+        <v>19800.4</v>
       </c>
       <c r="P15">
         <v>3368.5</v>
@@ -5341,7 +5341,7 @@
         <v>16.8</v>
       </c>
       <c r="R15">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="S15" t="s">
         <v>195</v>
@@ -5356,7 +5356,7 @@
         <v>27394897</v>
       </c>
       <c r="W15">
-        <v>72.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="X15">
         <v>12.3</v>
@@ -5388,7 +5388,7 @@
         <v>7405</v>
       </c>
       <c r="H16">
-        <v>7916</v>
+        <v>8073</v>
       </c>
       <c r="I16">
         <v>8180.400000000003</v>
@@ -5409,16 +5409,16 @@
         <v>8452.500000000004</v>
       </c>
       <c r="O16">
-        <v>-264.4</v>
+        <v>-107.4</v>
       </c>
       <c r="P16">
         <v>272.1</v>
       </c>
       <c r="Q16">
-        <v>-3.2</v>
+        <v>-1.3</v>
       </c>
       <c r="R16">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="S16" t="s">
         <v>196</v>
@@ -5433,7 +5433,7 @@
         <v>853013</v>
       </c>
       <c r="W16">
-        <v>-31</v>
+        <v>-12.6</v>
       </c>
       <c r="X16">
         <v>31.9</v>
@@ -5696,7 +5696,7 @@
         <v>858</v>
       </c>
       <c r="H20">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="I20">
         <v>845.6000000000007</v>
@@ -5717,13 +5717,13 @@
         <v>873.6000000000007</v>
       </c>
       <c r="O20">
-        <v>128.4</v>
+        <v>129.4</v>
       </c>
       <c r="P20">
         <v>28</v>
       </c>
       <c r="Q20">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="R20">
         <v>3.7</v>
@@ -5741,7 +5741,7 @@
         <v>257455</v>
       </c>
       <c r="W20">
-        <v>49.9</v>
+        <v>50.3</v>
       </c>
       <c r="X20">
         <v>10.8</v>
@@ -5773,7 +5773,7 @@
         <v>1879</v>
       </c>
       <c r="H21">
-        <v>2247</v>
+        <v>2215</v>
       </c>
       <c r="I21">
         <v>1907</v>
@@ -5794,13 +5794,13 @@
         <v>1943.2</v>
       </c>
       <c r="O21">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="P21">
         <v>36.2</v>
       </c>
       <c r="Q21">
-        <v>17.8</v>
+        <v>16.2</v>
       </c>
       <c r="R21">
         <v>2.2</v>
@@ -5818,7 +5818,7 @@
         <v>299237</v>
       </c>
       <c r="W21">
-        <v>113.6</v>
+        <v>102.9</v>
       </c>
       <c r="X21">
         <v>12.1</v>
@@ -5838,49 +5838,49 @@
         <v>32068</v>
       </c>
       <c r="D22">
-        <v>31398</v>
+        <v>31344</v>
       </c>
       <c r="E22">
-        <v>31247</v>
+        <v>31209</v>
       </c>
       <c r="F22">
-        <v>31684</v>
+        <v>31645</v>
       </c>
       <c r="G22">
-        <v>31682</v>
+        <v>31642</v>
       </c>
       <c r="H22">
-        <v>36532</v>
+        <v>36575</v>
       </c>
       <c r="I22">
-        <v>32229.39999999999</v>
+        <v>32195.19999999999</v>
       </c>
       <c r="J22">
-        <v>281.8</v>
+        <v>296.5</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>247</v>
+        <v>259.9</v>
       </c>
       <c r="M22">
-        <v>31982.39999999999</v>
+        <v>31935.29999999998</v>
       </c>
       <c r="N22">
-        <v>32476.39999999999</v>
+        <v>32455.09999999999</v>
       </c>
       <c r="O22">
-        <v>4302.6</v>
+        <v>4379.8</v>
       </c>
       <c r="P22">
-        <v>247</v>
+        <v>259.9</v>
       </c>
       <c r="Q22">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="R22">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="S22" t="s">
         <v>202</v>
@@ -5895,10 +5895,10 @@
         <v>8326921</v>
       </c>
       <c r="W22">
-        <v>51.7</v>
+        <v>52.6</v>
       </c>
       <c r="X22">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Y22" t="s">
         <v>295</v>
@@ -5921,37 +5921,37 @@
         <v>8132</v>
       </c>
       <c r="F23">
-        <v>8320</v>
+        <v>8321</v>
       </c>
       <c r="G23">
-        <v>8338</v>
+        <v>8339</v>
       </c>
       <c r="H23">
-        <v>8594</v>
+        <v>8592</v>
       </c>
       <c r="I23">
-        <v>8424.4</v>
+        <v>8424.799999999999</v>
       </c>
       <c r="J23">
-        <v>94.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="M23">
-        <v>8341.699999999999</v>
+        <v>8341.9</v>
       </c>
       <c r="N23">
-        <v>8507.1</v>
+        <v>8507.699999999999</v>
       </c>
       <c r="O23">
-        <v>169.6</v>
+        <v>167.2</v>
       </c>
       <c r="P23">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5972,10 +5972,10 @@
         <v>2616128</v>
       </c>
       <c r="W23">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X23">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y23" t="s">
         <v>296</v>
@@ -6158,7 +6158,7 @@
         <v>74991</v>
       </c>
       <c r="H26">
-        <v>92420</v>
+        <v>92462</v>
       </c>
       <c r="I26">
         <v>78051.40000000007</v>
@@ -6179,16 +6179,16 @@
         <v>79138.90000000007</v>
       </c>
       <c r="O26">
-        <v>14368.6</v>
+        <v>14410.6</v>
       </c>
       <c r="P26">
         <v>1087.5</v>
       </c>
       <c r="Q26">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="R26">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="s">
         <v>206</v>
@@ -6203,7 +6203,7 @@
         <v>9137116</v>
       </c>
       <c r="W26">
-        <v>157.3</v>
+        <v>157.7</v>
       </c>
       <c r="X26">
         <v>11.9</v>
@@ -6312,7 +6312,7 @@
         <v>16317</v>
       </c>
       <c r="H28">
-        <v>18800</v>
+        <v>18802</v>
       </c>
       <c r="I28">
         <v>16614</v>
@@ -6333,7 +6333,7 @@
         <v>16793.8</v>
       </c>
       <c r="O28">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="P28">
         <v>179.8</v>
@@ -6342,7 +6342,7 @@
         <v>13.2</v>
       </c>
       <c r="R28">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="S28" t="s">
         <v>208</v>
@@ -6357,7 +6357,7 @@
         <v>2608746</v>
       </c>
       <c r="W28">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="X28">
         <v>6.9</v>
@@ -6389,7 +6389,7 @@
         <v>4873</v>
       </c>
       <c r="H29">
-        <v>5622</v>
+        <v>5638</v>
       </c>
       <c r="I29">
         <v>5008.399999999999</v>
@@ -6410,16 +6410,16 @@
         <v>5090.499999999999</v>
       </c>
       <c r="O29">
-        <v>613.6</v>
+        <v>629.6</v>
       </c>
       <c r="P29">
         <v>82.09999999999999</v>
       </c>
       <c r="Q29">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S29" t="s">
         <v>209</v>
@@ -6434,7 +6434,7 @@
         <v>1012855</v>
       </c>
       <c r="W29">
-        <v>60.6</v>
+        <v>62.2</v>
       </c>
       <c r="X29">
         <v>8.1</v>
@@ -6466,7 +6466,7 @@
         <v>81565</v>
       </c>
       <c r="H30">
-        <v>100754</v>
+        <v>99933</v>
       </c>
       <c r="I30">
         <v>83674.00000000004</v>
@@ -6487,13 +6487,13 @@
         <v>84768.20000000004</v>
       </c>
       <c r="O30">
-        <v>17080</v>
+        <v>16259</v>
       </c>
       <c r="P30">
         <v>1094.2</v>
       </c>
       <c r="Q30">
-        <v>20.4</v>
+        <v>19.4</v>
       </c>
       <c r="R30">
         <v>1.5</v>
@@ -6511,7 +6511,7 @@
         <v>22143107</v>
       </c>
       <c r="W30">
-        <v>77.09999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="X30">
         <v>5</v>
@@ -6864,7 +6864,7 @@
         <v>36592</v>
       </c>
       <c r="H3">
-        <v>42997</v>
+        <v>42695</v>
       </c>
       <c r="I3">
         <v>38128.4</v>
@@ -6885,13 +6885,13 @@
         <v>38762.4</v>
       </c>
       <c r="O3">
-        <v>4868.6</v>
+        <v>4566.6</v>
       </c>
       <c r="P3">
         <v>634</v>
       </c>
       <c r="Q3">
-        <v>12.8</v>
+        <v>12</v>
       </c>
       <c r="R3">
         <v>1.9</v>
@@ -6909,10 +6909,10 @@
         <v>10865678</v>
       </c>
       <c r="W3">
-        <v>44.8</v>
+        <v>42</v>
       </c>
       <c r="X3">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y3" t="s">
         <v>401</v>
@@ -6941,7 +6941,7 @@
         <v>49178</v>
       </c>
       <c r="H4">
-        <v>63323</v>
+        <v>63328</v>
       </c>
       <c r="I4">
         <v>51152.40000000003</v>
@@ -6962,7 +6962,7 @@
         <v>51940.80000000003</v>
       </c>
       <c r="O4">
-        <v>12170.6</v>
+        <v>12175.6</v>
       </c>
       <c r="P4">
         <v>788.4</v>
@@ -6986,10 +6986,10 @@
         <v>6613177</v>
       </c>
       <c r="W4">
-        <v>184</v>
+        <v>184.1</v>
       </c>
       <c r="X4">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="Y4" t="s">
         <v>402</v>
@@ -7172,7 +7172,7 @@
         <v>49915</v>
       </c>
       <c r="H7">
-        <v>59476</v>
+        <v>59484</v>
       </c>
       <c r="I7">
         <v>50157</v>
@@ -7193,7 +7193,7 @@
         <v>50868.7</v>
       </c>
       <c r="O7">
-        <v>9319</v>
+        <v>9327</v>
       </c>
       <c r="P7">
         <v>711.7</v>
@@ -7217,7 +7217,7 @@
         <v>10252839</v>
       </c>
       <c r="W7">
-        <v>90.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="X7">
         <v>6.9</v>
@@ -7326,7 +7326,7 @@
         <v>6249</v>
       </c>
       <c r="H9">
-        <v>6726</v>
+        <v>6735</v>
       </c>
       <c r="I9">
         <v>6671.6</v>
@@ -7347,16 +7347,16 @@
         <v>6863.400000000001</v>
       </c>
       <c r="O9">
-        <v>54.4</v>
+        <v>63.4</v>
       </c>
       <c r="P9">
         <v>191.8</v>
       </c>
       <c r="Q9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="S9" t="s">
         <v>314</v>
@@ -7371,10 +7371,10 @@
         <v>1251531</v>
       </c>
       <c r="W9">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="X9">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="Y9" t="s">
         <v>407</v>
@@ -7480,7 +7480,7 @@
         <v>194329</v>
       </c>
       <c r="H11">
-        <v>217697</v>
+        <v>217737</v>
       </c>
       <c r="I11">
         <v>198772.8</v>
@@ -7501,7 +7501,7 @@
         <v>199812.9</v>
       </c>
       <c r="O11">
-        <v>18924.2</v>
+        <v>18964.2</v>
       </c>
       <c r="P11">
         <v>1040.1</v>
@@ -7528,7 +7528,7 @@
         <v>30</v>
       </c>
       <c r="X11">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Y11" t="s">
         <v>409</v>
@@ -7788,7 +7788,7 @@
         <v>181258</v>
       </c>
       <c r="H15">
-        <v>221010</v>
+        <v>221093</v>
       </c>
       <c r="I15">
         <v>193674.6</v>
@@ -7809,13 +7809,13 @@
         <v>199256.6</v>
       </c>
       <c r="O15">
-        <v>27335.4</v>
+        <v>27418.4</v>
       </c>
       <c r="P15">
         <v>5582</v>
       </c>
       <c r="Q15">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="R15">
         <v>3.2</v>
@@ -7833,7 +7833,7 @@
         <v>55221785</v>
       </c>
       <c r="W15">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="X15">
         <v>10.1</v>
@@ -7865,7 +7865,7 @@
         <v>12134</v>
       </c>
       <c r="H16">
-        <v>12928</v>
+        <v>13131</v>
       </c>
       <c r="I16">
         <v>13430.2</v>
@@ -7886,13 +7886,13 @@
         <v>13911.7</v>
       </c>
       <c r="O16">
-        <v>-502.2</v>
+        <v>-299.2</v>
       </c>
       <c r="P16">
         <v>481.5</v>
       </c>
       <c r="Q16">
-        <v>-3.7</v>
+        <v>-2.2</v>
       </c>
       <c r="R16">
         <v>3.4</v>
@@ -7910,7 +7910,7 @@
         <v>1796623</v>
       </c>
       <c r="W16">
-        <v>-28</v>
+        <v>-16.7</v>
       </c>
       <c r="X16">
         <v>26.8</v>
@@ -8173,7 +8173,7 @@
         <v>1386</v>
       </c>
       <c r="H20">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="I20">
         <v>1401.4</v>
@@ -8194,13 +8194,13 @@
         <v>1430.9</v>
       </c>
       <c r="O20">
-        <v>189.6</v>
+        <v>192.6</v>
       </c>
       <c r="P20">
         <v>29.5</v>
       </c>
       <c r="Q20">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="R20">
         <v>2.3</v>
@@ -8218,7 +8218,7 @@
         <v>492875</v>
       </c>
       <c r="W20">
-        <v>38.5</v>
+        <v>39.1</v>
       </c>
       <c r="X20">
         <v>6</v>
@@ -8250,7 +8250,7 @@
         <v>3039</v>
       </c>
       <c r="H21">
-        <v>3646</v>
+        <v>3596</v>
       </c>
       <c r="I21">
         <v>3194.199999999999</v>
@@ -8271,16 +8271,16 @@
         <v>3280</v>
       </c>
       <c r="O21">
-        <v>451.8</v>
+        <v>401.8</v>
       </c>
       <c r="P21">
         <v>85.8</v>
       </c>
       <c r="Q21">
-        <v>14.1</v>
+        <v>12.6</v>
       </c>
       <c r="R21">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="S21" t="s">
         <v>326</v>
@@ -8295,10 +8295,10 @@
         <v>600997</v>
       </c>
       <c r="W21">
-        <v>75.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="X21">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="Y21" t="s">
         <v>419</v>
@@ -8312,49 +8312,49 @@
         <v>46</v>
       </c>
       <c r="C22">
-        <v>54895</v>
+        <v>54896</v>
       </c>
       <c r="D22">
-        <v>54146</v>
+        <v>54059</v>
       </c>
       <c r="E22">
-        <v>53658</v>
+        <v>53619</v>
       </c>
       <c r="F22">
-        <v>54603</v>
+        <v>54543</v>
       </c>
       <c r="G22">
-        <v>54769</v>
+        <v>54725</v>
       </c>
       <c r="H22">
-        <v>62036</v>
+        <v>62082</v>
       </c>
       <c r="I22">
-        <v>55471.00000000001</v>
+        <v>55425.2</v>
       </c>
       <c r="J22">
-        <v>455.3</v>
+        <v>467.6</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>399.1</v>
+        <v>409.9</v>
       </c>
       <c r="M22">
-        <v>55071.90000000001</v>
+        <v>55015.3</v>
       </c>
       <c r="N22">
-        <v>55870.10000000001</v>
+        <v>55835.1</v>
       </c>
       <c r="O22">
-        <v>6565</v>
+        <v>6656.8</v>
       </c>
       <c r="P22">
-        <v>399.1</v>
+        <v>409.9</v>
       </c>
       <c r="Q22">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="R22">
         <v>0.8</v>
@@ -8372,10 +8372,10 @@
         <v>16585497</v>
       </c>
       <c r="W22">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="X22">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y22" t="s">
         <v>420</v>
@@ -8398,37 +8398,37 @@
         <v>13904</v>
       </c>
       <c r="F23">
-        <v>14037</v>
+        <v>14038</v>
       </c>
       <c r="G23">
-        <v>14140</v>
+        <v>14142</v>
       </c>
       <c r="H23">
-        <v>14469</v>
+        <v>14472</v>
       </c>
       <c r="I23">
-        <v>14237.40000000001</v>
+        <v>14238.00000000001</v>
       </c>
       <c r="J23">
-        <v>133.8</v>
+        <v>134.4</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>117.3</v>
+        <v>117.8</v>
       </c>
       <c r="M23">
-        <v>14120.10000000001</v>
+        <v>14120.20000000001</v>
       </c>
       <c r="N23">
-        <v>14354.70000000001</v>
+        <v>14355.80000000001</v>
       </c>
       <c r="O23">
-        <v>231.6</v>
+        <v>234</v>
       </c>
       <c r="P23">
-        <v>117.3</v>
+        <v>117.8</v>
       </c>
       <c r="Q23">
         <v>1.6</v>
@@ -8449,10 +8449,10 @@
         <v>5136870</v>
       </c>
       <c r="W23">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="X23">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y23" t="s">
         <v>421</v>
@@ -8635,7 +8635,7 @@
         <v>118881</v>
       </c>
       <c r="H26">
-        <v>146471</v>
+        <v>146537</v>
       </c>
       <c r="I26">
         <v>125490.2</v>
@@ -8656,13 +8656,13 @@
         <v>127993.3</v>
       </c>
       <c r="O26">
-        <v>20980.8</v>
+        <v>21046.8</v>
       </c>
       <c r="P26">
         <v>2503.1</v>
       </c>
       <c r="Q26">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="R26">
         <v>2.3</v>
@@ -8680,7 +8680,7 @@
         <v>18400002</v>
       </c>
       <c r="W26">
-        <v>114</v>
+        <v>114.4</v>
       </c>
       <c r="X26">
         <v>13.6</v>
@@ -8789,7 +8789,7 @@
         <v>25919</v>
       </c>
       <c r="H28">
-        <v>30260</v>
+        <v>30263</v>
       </c>
       <c r="I28">
         <v>26559.2</v>
@@ -8810,7 +8810,7 @@
         <v>26835.4</v>
       </c>
       <c r="O28">
-        <v>3700.8</v>
+        <v>3703.8</v>
       </c>
       <c r="P28">
         <v>276.2</v>
@@ -8837,7 +8837,7 @@
         <v>70.2</v>
       </c>
       <c r="X28">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="s">
         <v>426</v>
@@ -8866,7 +8866,7 @@
         <v>7579</v>
       </c>
       <c r="H29">
-        <v>8692</v>
+        <v>8712</v>
       </c>
       <c r="I29">
         <v>7808.400000000003</v>
@@ -8887,13 +8887,13 @@
         <v>7943.600000000003</v>
       </c>
       <c r="O29">
-        <v>883.6</v>
+        <v>903.6</v>
       </c>
       <c r="P29">
         <v>135.2</v>
       </c>
       <c r="Q29">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="R29">
         <v>1.9</v>
@@ -8911,7 +8911,7 @@
         <v>1981694</v>
       </c>
       <c r="W29">
-        <v>44.6</v>
+        <v>45.6</v>
       </c>
       <c r="X29">
         <v>6.8</v>
@@ -8943,7 +8943,7 @@
         <v>125399</v>
       </c>
       <c r="H30">
-        <v>155284</v>
+        <v>153499</v>
       </c>
       <c r="I30">
         <v>128222</v>
@@ -8964,16 +8964,16 @@
         <v>129686.8</v>
       </c>
       <c r="O30">
-        <v>27062</v>
+        <v>25277</v>
       </c>
       <c r="P30">
         <v>1464.8</v>
       </c>
       <c r="Q30">
-        <v>21.1</v>
+        <v>19.7</v>
       </c>
       <c r="R30">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S30" t="s">
         <v>335</v>
@@ -8988,7 +8988,7 @@
         <v>44481561</v>
       </c>
       <c r="W30">
-        <v>60.8</v>
+        <v>56.8</v>
       </c>
       <c r="X30">
         <v>3.3</v>
